--- a/DataRepo/example_data/small_dataset/glucose_lcms_metadata_except_mzxml_and_lcdesc.xlsx
+++ b/DataRepo/example_data/small_dataset/glucose_lcms_metadata_except_mzxml_and_lcdesc.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/example_data/small_dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/example_data/small_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E32B22F2-7C33-934A-AFB9-F8862A641FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82879DDB-6230-D041-9F6D-E1446B7CC160}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" xr2:uid="{6E9FE3E2-ABCE-6444-BFBF-2517155B6381}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>BAT-xz971</t>
   </si>
@@ -92,9 +84,6 @@
     <t>mzxml filename</t>
   </si>
   <si>
-    <t>ms mode</t>
-  </si>
-  <si>
     <t>instrument</t>
   </si>
   <si>
@@ -114,9 +103,6 @@
   </si>
   <si>
     <t>small_obob_maven_6eaas_inf_glucose.xlsx</t>
-  </si>
-  <si>
-    <t>Default</t>
   </si>
   <si>
     <t>polar-HILIC</t>
@@ -481,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007E7542-13DA-C745-8362-DDC079F6D286}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,13 +480,12 @@
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -514,16 +499,16 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
       </c>
       <c r="I1" t="s">
         <v>23</v>
@@ -531,11 +516,8 @@
       <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -543,28 +525,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2">
+      <c r="I2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -572,28 +551,25 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3">
+      <c r="I3">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -602,7 +578,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -611,7 +587,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -620,7 +596,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -629,7 +605,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -638,7 +614,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -647,7 +623,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -656,7 +632,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -665,7 +641,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -674,7 +650,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -683,7 +659,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -692,7 +668,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -701,7 +677,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
